--- a/biology/Zoologie/Gasterosteiformes/Gasterosteiformes.xlsx
+++ b/biology/Zoologie/Gasterosteiformes/Gasterosteiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gasterosteiformes (les Gastérostéiformes en français) sont un ordre de poissons à nageoires rayonnées incluant un nombre de types familiers, parmi lesquels les épinoches ou les pégases. 
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les gastérostéiformes, le pelvis n’est jamais attaché au cleithra directement, et les os orbitosphénoide et basisphénoide du maxillaire inférieur sont absents. Le corps est souvent, en partie ou complètement, recouvert de plaques dermiques.
 Les deux ordres proches des Gasterosteoidei et Syngnathoidei sont parfois considérés comme des sous-ordres de ce taxon.
@@ -543,9 +557,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                            (17 avril 2016)[2] et World Register of Marine Species                               (17 avril 2016)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                            (17 avril 2016) et World Register of Marine Species                               (17 avril 2016) :
 famille Aulorhynchidae Gill, 1861 -- 1 genre
 famille Gasterosteidae Bonaparte, 1831 -- 5 genres
 famille Hypoptychidae Steindachner, 1880 -- 2 genres
@@ -553,7 +569,7 @@
 famille Pegasidae Bonaparte, 1831 -- 2 genres
 FishBase place Aulostomidae, Centriscidae, Fistulariidae, Solenostomidae et Syngnathidae sous Syngnathiformes
 Classification selon ITIS
-Selon ITIS      (17 avril 2016)[4] :
+Selon ITIS      (17 avril 2016) :
 sous-ordre Gasterosteoidei
 famille Aulorhynchidae
 famille Hypoptychidae (anguilles de sable)
@@ -601,7 +617,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lophobranches</t>
         </is>
